--- a/Mouse-Task_Analysis/Results_Mouse_Task_Analysis/Mixed-Model_Analysis/Result_Tables/Task_Pred_Coeffs_resTable.xlsx
+++ b/Mouse-Task_Analysis/Results_Mouse_Task_Analysis/Mixed-Model_Analysis/Result_Tables/Task_Pred_Coeffs_resTable.xlsx
@@ -542,7 +542,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>targt</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6743,7 +6743,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>targt</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
